--- a/ApolloQA/Data/RatingManual/SC/CT.1.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/CT.1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CT.1" sheetId="1" r:id="Rcfa13696de5a48d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CT.1" sheetId="1" r:id="R7339736cd48f49a8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -460,6 +460,14 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fuel Oil Haulers - Not For Hire</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>555</x:v>
       </x:c>
       <x:c t="str">
@@ -1264,6 +1272,14 @@
       </x:c>
       <x:c t="str">
         <x:v>Funeral Escort Vehicles - Owned By A Funeral Home Or Funeral Director</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>1633</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Bookmobiles, Bloodmobiles, &amp; Other Similar Autos</x:v>
       </x:c>
     </x:row>
     <x:row>
